--- a/Global plan.xlsx
+++ b/Global plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Marudhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\DMR_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47D5455-8F59-4460-A1BD-94C296554FFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AB25B0-9755-4498-8A1C-AF61248E56DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Known Technologies</t>
   </si>
@@ -814,26 +814,8 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -841,20 +823,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -868,7 +845,30 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,305 +1245,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
       <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1579,6 +1605,9 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;1#&amp;"Arial"&amp;10&amp;K000000Confidential C</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1596,82 +1625,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,72 +1725,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
